--- a/OCRChecker/활동데이터_견적서템플릿.xlsx
+++ b/OCRChecker/활동데이터_견적서템플릿.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,497 +424,282 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>itemNo</t>
+          <t>품번</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>품목</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>품명</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>spec</t>
+          <t>규격</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>quantity</t>
+          <t>수량</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>unitPrice</t>
+          <t>단가</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>finalAmount</t>
+          <t>최종금액</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>manufacturer</t>
+          <t>제조사</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>사이즈</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>partNumber</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>품목</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>2024.2 사무용품-복사^0001.png</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
+          <t>specifications</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
+          <t>nextware</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
+          <t>size</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>partNumber</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>품목</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2024.2 사무용품-복사^0002.png</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
+          <t>specifications</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
+          <t>nextware</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
+          <t>size</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>partNumber</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>품목</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2024.2 사무용품-복사^0003.png</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
+          <t>specifications</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
+          <t>nextware</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
+          <t>size</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>partNumber</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>품목</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2024.2 사무용품-복사^0004.png</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
+          <t>specifications</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
+          <t>nextware</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
+          <t>size</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>partNumber</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>품목</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2024.2 사무용품-복사^0005.png</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
+          <t>specifications</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
+          <t>nextware</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0001.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0002.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0003.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0004.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2024.2 사무용품-복사^0005.png</t>
+          <t>size</t>
         </is>
       </c>
     </row>
